--- a/VerveStacks_ESP/SuppXLS/scen_tsparameters_triple_1.xlsx
+++ b/VerveStacks_ESP/SuppXLS/scen_tsparameters_triple_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ESP\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A0C415-E849-4E65-9B2D-B510762192F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4075D04B-1AAB-4BC1-9DD8-4022FC89CBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -900,10 +900,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0206h10,S3aH2,S4c0802h14,S5d1117h09,S1b0206h07,S1b0206h17,S3aH5,S4c0802h10,S5aH3,S5d1117h18,S1aH4,S1b0206h15,S1b0206h18,S2aH2,S4c0802h13,S5d1117h10,S5d1117h13,S1b0206h08,S3aH4,S4aH3,S4aH4,S4c0802h17,S1aH5,S1b0206h16,S2aH4,S2aH5,S4c0802h07,S4c0802h08,S5aH2,S5aH5,S5d1117h07,S1b0206h09,S1b0206h14,S4aH2,S4c0802h12,S5d1117h16,S5d1117h15,S5d1117h17,S4c0802h18,S1aH2,S1b0206h11,S1b0206h12,S2aH3,S5d1117h12,S1aH3,S1b0206h13,S4c0802h09,S4c0802h11,S5d1117h08,S5d1117h11,S4c0802h15,S5aH4,S5d1117h14,S4aH5,S3aH3,S4c0802h16</t>
-  </si>
-  <si>
-    <t>S3aH8,S5d1117h04,S2aH8,S1aH8,S1b0206h02,S1b0206h24,S4c0802h21,S5aH1,S1b0206h23,S4aH1,S4c0802h19,S5d1117h23,S1b0206h06,S5d1117h19,S5d1117h20,S1aH6,S1b0206h05,S1b0206h20,S1b0206h21,S4c0802h23,S1b0206h19,S2aH6,S3aH1,S2aH1,S3aH7,S4c0802h02,S4c0802h20,S5aH8,S5d1117h05,S1b0206h01,S4c0802h03,S4c0802h05,S4c0802h06,S5d1117h03,S5d1117h21,S1aH1,S2aH7,S4c0802h04,S1aH7,S3aH6,S4aH7,S4c0802h01,S4c0802h24,S5aH6,S5aH7,S5d1117h02,S1b0206h04,S4aH8,S5d1117h24,S4c0802h22,S1b0206h03,S1b0206h22,S4aH6,S5d1117h01,S5d1117h06,S5d1117h22</t>
+    <t>S4c0802h11,S5d1117h08,S5d1117h11,S1b0206h07,S1b0206h17,S3aH5,S4c0802h10,S5aH3,S5d1117h18,S5d1117h09,S1aH4,S1b0206h15,S1b0206h18,S2aH2,S4c0802h13,S5d1117h10,S5d1117h13,S5d1117h15,S5d1117h17,S4c0802h15,S5aH4,S5d1117h14,S1b0206h09,S1aH2,S1b0206h11,S1b0206h12,S2aH3,S5d1117h12,S4aH5,S1aH5,S1b0206h16,S2aH4,S2aH5,S4c0802h07,S4c0802h08,S5aH2,S5aH5,S5d1117h07,S4c0802h18,S1b0206h08,S3aH4,S4aH3,S4aH4,S4c0802h17,S1aH3,S1b0206h13,S4c0802h09,S3aH3,S4c0802h16,S1b0206h14,S4aH2,S4c0802h12,S5d1117h16,S1b0206h10,S3aH2,S4c0802h14</t>
+  </si>
+  <si>
+    <t>S1b0206h04,S4aH8,S5d1117h24,S1aH8,S1b0206h02,S1b0206h24,S4c0802h21,S5aH1,S2aH8,S1b0206h23,S4aH1,S4c0802h19,S5d1117h23,S1b0206h01,S4c0802h03,S4c0802h05,S4c0802h06,S5d1117h03,S5d1117h21,S4c0802h22,S1b0206h19,S2aH6,S3aH1,S4c0802h04,S1b0206h03,S1b0206h22,S1aH6,S1b0206h05,S1b0206h20,S1b0206h21,S4c0802h23,S1aH1,S2aH7,S1b0206h06,S5d1117h19,S5d1117h20,S1aH7,S3aH6,S4aH7,S4c0802h01,S4c0802h24,S5aH6,S5aH7,S5d1117h02,S4aH6,S5d1117h01,S5d1117h06,S5d1117h22,S2aH1,S3aH7,S4c0802h02,S4c0802h20,S5aH8,S5d1117h05,S3aH8,S5d1117h04</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3aH8,S5d1117h04,S2aH8,S1aH8,S1b0206h02,S1b0206h24,S4c0802h21,S5aH1,S1b0206h23,S4aH1,S4c0802h19,S5d1117h23,S1b0206h06,S5d1117h19,S5d1117h20,S1aH6,S1b0206h05,S1b0206h20,S1b0206h21,S4c0802h23,S1b0206h19,S2aH6,S3aH1,S2aH1,S3aH7,S4c0802h02,S4c0802h20,S5aH8,S5d1117h05,S1b0206h01,S4c0802h03,S4c0802h05,S4c0802h06,S5d1117h03,S5d1117h21,S1aH1,S2aH7,S4c0802h04,S1aH7,S3aH6,S4aH7,S4c0802h01,S4c0802h24,S5aH6,S5aH7,S5d1117h02,S1b0206h04,S4aH8,S5d1117h24,S4c0802h22,S1b0206h03,S1b0206h22,S4aH6,S5d1117h01,S5d1117h06,S5d1117h22</v>
+        <v>S1b0206h04,S4aH8,S5d1117h24,S1aH8,S1b0206h02,S1b0206h24,S4c0802h21,S5aH1,S2aH8,S1b0206h23,S4aH1,S4c0802h19,S5d1117h23,S1b0206h01,S4c0802h03,S4c0802h05,S4c0802h06,S5d1117h03,S5d1117h21,S4c0802h22,S1b0206h19,S2aH6,S3aH1,S4c0802h04,S1b0206h03,S1b0206h22,S1aH6,S1b0206h05,S1b0206h20,S1b0206h21,S4c0802h23,S1aH1,S2aH7,S1b0206h06,S5d1117h19,S5d1117h20,S1aH7,S3aH6,S4aH7,S4c0802h01,S4c0802h24,S5aH6,S5aH7,S5d1117h02,S4aH6,S5d1117h01,S5d1117h06,S5d1117h22,S2aH1,S3aH7,S4c0802h02,S4c0802h20,S5aH8,S5d1117h05,S3aH8,S5d1117h04</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0206h10,S3aH2,S4c0802h14,S5d1117h09,S1b0206h07,S1b0206h17,S3aH5,S4c0802h10,S5aH3,S5d1117h18,S1aH4,S1b0206h15,S1b0206h18,S2aH2,S4c0802h13,S5d1117h10,S5d1117h13,S1b0206h08,S3aH4,S4aH3,S4aH4,S4c0802h17,S1aH5,S1b0206h16,S2aH4,S2aH5,S4c0802h07,S4c0802h08,S5aH2,S5aH5,S5d1117h07,S1b0206h09,S1b0206h14,S4aH2,S4c0802h12,S5d1117h16,S5d1117h15,S5d1117h17,S4c0802h18,S1aH2,S1b0206h11,S1b0206h12,S2aH3,S5d1117h12,S1aH3,S1b0206h13,S4c0802h09,S4c0802h11,S5d1117h08,S5d1117h11,S4c0802h15,S5aH4,S5d1117h14,S4aH5,S3aH3,S4c0802h16</v>
+        <v>S4c0802h11,S5d1117h08,S5d1117h11,S1b0206h07,S1b0206h17,S3aH5,S4c0802h10,S5aH3,S5d1117h18,S5d1117h09,S1aH4,S1b0206h15,S1b0206h18,S2aH2,S4c0802h13,S5d1117h10,S5d1117h13,S5d1117h15,S5d1117h17,S4c0802h15,S5aH4,S5d1117h14,S1b0206h09,S1aH2,S1b0206h11,S1b0206h12,S2aH3,S5d1117h12,S4aH5,S1aH5,S1b0206h16,S2aH4,S2aH5,S4c0802h07,S4c0802h08,S5aH2,S5aH5,S5d1117h07,S4c0802h18,S1b0206h08,S3aH4,S4aH3,S4aH4,S4c0802h17,S1aH3,S1b0206h13,S4c0802h09,S3aH3,S4c0802h16,S1b0206h14,S4aH2,S4c0802h12,S5d1117h16,S1b0206h10,S3aH2,S4c0802h14</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2120,7 +2120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098E575E-F9F4-4A59-B778-2FEFCE169AF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB1002D-5939-413A-984C-AE35601F929F}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2834,7 +2834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27D8F80-EDDC-4ABF-AF74-DB9F17E8896C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA0B69D-CF06-4AA5-A6F1-14DD01CF9B82}">
   <dimension ref="B2:O115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2913,10 +2913,10 @@
         <v>282</v>
       </c>
       <c r="M4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.18708881578947367</v>
+        <v>0.4017269736842104</v>
       </c>
       <c r="O4" t="s">
         <v>293</v>
@@ -2948,10 +2948,10 @@
         <v>282</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N5">
-        <v>0.11426809210526315</v>
+        <v>0.36981907894736832</v>
       </c>
       <c r="O5" t="s">
         <v>293</v>
@@ -2983,10 +2983,10 @@
         <v>282</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="N6">
-        <v>0.1270970394736842</v>
+        <v>0.18708881578947367</v>
       </c>
       <c r="O6" t="s">
         <v>293</v>
@@ -3018,10 +3018,10 @@
         <v>282</v>
       </c>
       <c r="M7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N7">
-        <v>0.36981907894736832</v>
+        <v>0.1270970394736842</v>
       </c>
       <c r="O7" t="s">
         <v>293</v>
@@ -3053,10 +3053,10 @@
         <v>282</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N8">
-        <v>0.40172697368421045</v>
+        <v>0.11426809210526315</v>
       </c>
       <c r="O8" t="s">
         <v>293</v>
@@ -5850,7 +5850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3314C9-9454-4910-B6E8-FF114D940956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F852DDF5-605F-4D03-B423-2C673F836FE7}">
   <dimension ref="B2:O227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
